--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H2">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I2">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J2">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.517755</v>
+        <v>2.271905</v>
       </c>
       <c r="N2">
-        <v>7.553265</v>
+        <v>6.815715</v>
       </c>
       <c r="O2">
-        <v>0.2504376744648923</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P2">
-        <v>0.2866298851167919</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q2">
-        <v>38.040566427865</v>
+        <v>18.81221703405667</v>
       </c>
       <c r="R2">
-        <v>342.365097850785</v>
+        <v>169.30995330651</v>
       </c>
       <c r="S2">
-        <v>0.09907601787704262</v>
+        <v>0.08268762487695422</v>
       </c>
       <c r="T2">
-        <v>0.1220073878026366</v>
+        <v>0.09570565456347549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H3">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I3">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J3">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.687724000000001</v>
+        <v>3.687724</v>
       </c>
       <c r="N3">
         <v>11.063172</v>
       </c>
       <c r="O3">
-        <v>0.3668129038085003</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P3">
-        <v>0.4198231783721755</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q3">
-        <v>55.71753796125201</v>
+        <v>30.53572409484533</v>
       </c>
       <c r="R3">
-        <v>501.457841651268</v>
+        <v>274.821516853608</v>
       </c>
       <c r="S3">
-        <v>0.1451153940512875</v>
+        <v>0.134217380903577</v>
       </c>
       <c r="T3">
-        <v>0.1787026824202872</v>
+        <v>0.1553480622074594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H4">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I4">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J4">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.7E-05</v>
+        <v>0.044076</v>
       </c>
       <c r="N4">
-        <v>0.000111</v>
+        <v>0.132228</v>
       </c>
       <c r="O4">
-        <v>3.680339808758603E-06</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P4">
-        <v>4.212207204164545E-06</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q4">
-        <v>0.000559030151</v>
+        <v>0.364965646888</v>
       </c>
       <c r="R4">
-        <v>0.005031271359</v>
+        <v>3.284690821992001</v>
       </c>
       <c r="S4">
-        <v>1.455984661514158E-06</v>
+        <v>0.001604177883351916</v>
       </c>
       <c r="T4">
-        <v>1.792975626579057E-06</v>
+        <v>0.001856733635666873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H5">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I5">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J5">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.8082785</v>
+        <v>2.0917535</v>
       </c>
       <c r="N5">
-        <v>7.616557</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O5">
-        <v>0.3788042963889053</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P5">
-        <v>0.2890316780750441</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q5">
-        <v>57.5389866190555</v>
+        <v>17.32049571779967</v>
       </c>
       <c r="R5">
-        <v>345.233919714333</v>
+        <v>103.922974306798</v>
       </c>
       <c r="S5">
-        <v>0.1498593265614633</v>
+        <v>0.07613088079961798</v>
       </c>
       <c r="T5">
-        <v>0.1230297392743253</v>
+        <v>0.05874442751873894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.108923</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H6">
-        <v>45.326769</v>
+        <v>34.208462</v>
       </c>
       <c r="I6">
-        <v>0.3956114753450629</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J6">
-        <v>0.4256617824513403</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.039625</v>
+        <v>2.271905</v>
       </c>
       <c r="N6">
-        <v>0.118875</v>
+        <v>6.815715</v>
       </c>
       <c r="O6">
-        <v>0.003941444997893504</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P6">
-        <v>0.004511046228784326</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q6">
-        <v>0.598691073875</v>
+        <v>25.90612528670333</v>
       </c>
       <c r="R6">
-        <v>5.388219664875</v>
+        <v>233.15512758033</v>
       </c>
       <c r="S6">
-        <v>0.001559280870608067</v>
+        <v>0.1138683423566891</v>
       </c>
       <c r="T6">
-        <v>0.001920179978464733</v>
+        <v>0.1317953473149303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>34.208462</v>
       </c>
       <c r="I7">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J7">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.517755</v>
+        <v>3.687724</v>
       </c>
       <c r="N7">
-        <v>7.553265</v>
+        <v>11.063172</v>
       </c>
       <c r="O7">
-        <v>0.2504376744648923</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P7">
-        <v>0.2866298851167919</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q7">
-        <v>28.70950874760333</v>
+        <v>42.05045544016266</v>
       </c>
       <c r="R7">
-        <v>258.3855787284299</v>
+        <v>378.454098961464</v>
       </c>
       <c r="S7">
-        <v>0.07477343449426394</v>
+        <v>0.1848294796432857</v>
       </c>
       <c r="T7">
-        <v>0.09207991616092813</v>
+        <v>0.2139283400413327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>34.208462</v>
       </c>
       <c r="I8">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J8">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.687724000000001</v>
+        <v>0.044076</v>
       </c>
       <c r="N8">
-        <v>11.063172</v>
+        <v>0.132228</v>
       </c>
       <c r="O8">
-        <v>0.3668129038085003</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P8">
-        <v>0.4198231783721755</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q8">
-        <v>42.05045544016267</v>
+        <v>0.5025907237039999</v>
       </c>
       <c r="R8">
-        <v>378.454098961464</v>
+        <v>4.523316513336</v>
       </c>
       <c r="S8">
-        <v>0.1095197066223382</v>
+        <v>0.002209098117092673</v>
       </c>
       <c r="T8">
-        <v>0.1348682920874519</v>
+        <v>0.002556890243321296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>34.208462</v>
       </c>
       <c r="I9">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J9">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3.7E-05</v>
+        <v>2.0917535</v>
       </c>
       <c r="N9">
-        <v>0.000111</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O9">
-        <v>3.680339808758603E-06</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P9">
-        <v>4.212207204164545E-06</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q9">
-        <v>0.0004219043646666667</v>
+        <v>23.85189003937233</v>
       </c>
       <c r="R9">
-        <v>0.003797139282</v>
+        <v>143.111340236234</v>
       </c>
       <c r="S9">
-        <v>1.098842848604319E-06</v>
+        <v>0.1048391124029406</v>
       </c>
       <c r="T9">
-        <v>1.353172527888671E-06</v>
+        <v>0.08089639283031087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.40282066666667</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H10">
-        <v>34.208462</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I10">
-        <v>0.2985710303133568</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J10">
-        <v>0.3212502287519973</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.8082785</v>
+        <v>2.271905</v>
       </c>
       <c r="N10">
-        <v>7.616557</v>
+        <v>6.815715</v>
       </c>
       <c r="O10">
-        <v>0.3788042963889053</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P10">
-        <v>0.2890316780750441</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q10">
-        <v>43.42511678422233</v>
+        <v>4.234945272551666</v>
       </c>
       <c r="R10">
-        <v>260.550700705334</v>
+        <v>38.11450745296499</v>
       </c>
       <c r="S10">
-        <v>0.1130999890599616</v>
+        <v>0.01861436987662004</v>
       </c>
       <c r="T10">
-        <v>0.09285149269818156</v>
+        <v>0.02154494648962981</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.40282066666667</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H11">
-        <v>34.208462</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I11">
-        <v>0.2985710303133568</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J11">
-        <v>0.3212502287519973</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.039625</v>
+        <v>3.687724</v>
       </c>
       <c r="N11">
-        <v>0.118875</v>
+        <v>11.063172</v>
       </c>
       <c r="O11">
-        <v>0.003941444997893504</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P11">
-        <v>0.004511046228784326</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q11">
-        <v>0.4518367689166666</v>
+        <v>6.874103151441332</v>
       </c>
       <c r="R11">
-        <v>4.066530920249999</v>
+        <v>61.86692836297199</v>
       </c>
       <c r="S11">
-        <v>0.00117680129394449</v>
+        <v>0.03021458139265892</v>
       </c>
       <c r="T11">
-        <v>0.0014491746329078</v>
+        <v>0.03497145182061909</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H12">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I12">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J12">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.517755</v>
+        <v>0.044076</v>
       </c>
       <c r="N12">
-        <v>7.553265</v>
+        <v>0.132228</v>
       </c>
       <c r="O12">
-        <v>0.2504376744648923</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P12">
-        <v>0.2866298851167919</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q12">
-        <v>5.049241835769999</v>
+        <v>0.082159882492</v>
       </c>
       <c r="R12">
-        <v>45.44317652193</v>
+        <v>0.739438942428</v>
       </c>
       <c r="S12">
-        <v>0.01315066575927263</v>
+        <v>0.0003611273212048502</v>
       </c>
       <c r="T12">
-        <v>0.01619441729224172</v>
+        <v>0.0004179818528842199</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H13">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I13">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J13">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.687724000000001</v>
+        <v>2.0917535</v>
       </c>
       <c r="N13">
-        <v>11.063172</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O13">
-        <v>0.3668129038085003</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P13">
-        <v>0.4198231783721755</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q13">
-        <v>7.395560846696001</v>
+        <v>3.899133808926167</v>
       </c>
       <c r="R13">
-        <v>66.56004762026402</v>
+        <v>23.394802853557</v>
       </c>
       <c r="S13">
-        <v>0.0192616143097513</v>
+        <v>0.01713833691977197</v>
       </c>
       <c r="T13">
-        <v>0.02371975879885645</v>
+        <v>0.01322435495820934</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.005454</v>
+        <v>4.6029105</v>
       </c>
       <c r="H14">
-        <v>6.016362</v>
+        <v>9.205821</v>
       </c>
       <c r="I14">
-        <v>0.05251073260990594</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J14">
-        <v>0.05649940265525016</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3.7E-05</v>
+        <v>2.271905</v>
       </c>
       <c r="N14">
-        <v>0.000111</v>
+        <v>6.815715</v>
       </c>
       <c r="O14">
-        <v>3.680339808758603E-06</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P14">
-        <v>4.212207204164545E-06</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q14">
-        <v>7.4201798E-05</v>
+        <v>10.4573753795025</v>
       </c>
       <c r="R14">
-        <v>0.000667816182</v>
+        <v>62.744252277015</v>
       </c>
       <c r="S14">
-        <v>1.932573396113153E-07</v>
+        <v>0.04596457350095416</v>
       </c>
       <c r="T14">
-        <v>2.379871908954382E-07</v>
+        <v>0.0354673757625841</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.005454</v>
+        <v>4.6029105</v>
       </c>
       <c r="H15">
-        <v>6.016362</v>
+        <v>9.205821</v>
       </c>
       <c r="I15">
-        <v>0.05251073260990594</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J15">
-        <v>0.05649940265525016</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.8082785</v>
+        <v>3.687724</v>
       </c>
       <c r="N15">
-        <v>7.616557</v>
+        <v>11.063172</v>
       </c>
       <c r="O15">
-        <v>0.3788042963889053</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P15">
-        <v>0.2890316780750441</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q15">
-        <v>7.637327350939</v>
+        <v>16.974263520702</v>
       </c>
       <c r="R15">
-        <v>45.823964105634</v>
+        <v>101.845581124212</v>
       </c>
       <c r="S15">
-        <v>0.01989129111916136</v>
+        <v>0.0746090443258995</v>
       </c>
       <c r="T15">
-        <v>0.01633011715968456</v>
+        <v>0.05757014171662093</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.005454</v>
+        <v>4.6029105</v>
       </c>
       <c r="H16">
-        <v>6.016362</v>
+        <v>9.205821</v>
       </c>
       <c r="I16">
-        <v>0.05251073260990594</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J16">
-        <v>0.05649940265525016</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.039625</v>
+        <v>0.044076</v>
       </c>
       <c r="N16">
-        <v>0.118875</v>
+        <v>0.132228</v>
       </c>
       <c r="O16">
-        <v>0.003941444997893504</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P16">
-        <v>0.004511046228784326</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q16">
-        <v>0.07946611475</v>
+        <v>0.202877883198</v>
       </c>
       <c r="R16">
-        <v>0.71519503275</v>
+        <v>1.217267299188</v>
       </c>
       <c r="S16">
-        <v>0.000206968164381037</v>
+        <v>0.0008917338276151758</v>
       </c>
       <c r="T16">
-        <v>0.0002548714172765334</v>
+        <v>0.0006880833723732537</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H17">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I17">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J17">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.517755</v>
+        <v>2.0917535</v>
       </c>
       <c r="N17">
-        <v>7.553265</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O17">
-        <v>0.2504376744648923</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P17">
-        <v>0.2866298851167919</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q17">
-        <v>20.3649620277</v>
+        <v>9.628154148561752</v>
       </c>
       <c r="R17">
-        <v>122.1897721662</v>
+        <v>38.51261659424701</v>
       </c>
       <c r="S17">
-        <v>0.0530402023783677</v>
+        <v>0.04231979660092659</v>
       </c>
       <c r="T17">
-        <v>0.04354431865801588</v>
+        <v>0.02176998521422931</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.08854</v>
+        <v>1.953192</v>
       </c>
       <c r="H18">
-        <v>16.17708</v>
+        <v>5.859576</v>
       </c>
       <c r="I18">
-        <v>0.2117900291627375</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J18">
-        <v>0.1519182783060917</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.687724000000001</v>
+        <v>2.271905</v>
       </c>
       <c r="N18">
-        <v>11.063172</v>
+        <v>6.815715</v>
       </c>
       <c r="O18">
-        <v>0.3668129038085003</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P18">
-        <v>0.4198231783721755</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q18">
-        <v>29.82830308296001</v>
+        <v>4.437466670759999</v>
       </c>
       <c r="R18">
-        <v>178.96981849776</v>
+        <v>39.93720003684</v>
       </c>
       <c r="S18">
-        <v>0.0776873155948707</v>
+        <v>0.0195045368024157</v>
       </c>
       <c r="T18">
-        <v>0.06377881445129212</v>
+        <v>0.02257525795922161</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.08854</v>
+        <v>1.953192</v>
       </c>
       <c r="H19">
-        <v>16.17708</v>
+        <v>5.859576</v>
       </c>
       <c r="I19">
-        <v>0.2117900291627375</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J19">
-        <v>0.1519182783060917</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>3.7E-05</v>
+        <v>3.687724</v>
       </c>
       <c r="N19">
-        <v>0.000111</v>
+        <v>11.063172</v>
       </c>
       <c r="O19">
-        <v>3.680339808758603E-06</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P19">
-        <v>4.212207204164545E-06</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q19">
-        <v>0.00029927598</v>
+        <v>7.202833015007999</v>
       </c>
       <c r="R19">
-        <v>0.00179565588</v>
+        <v>64.825497135072</v>
       </c>
       <c r="S19">
-        <v>7.794592754257683E-07</v>
+        <v>0.03165948773172805</v>
       </c>
       <c r="T19">
-        <v>6.399112663251936E-07</v>
+        <v>0.03664383879713833</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.08854</v>
+        <v>1.953192</v>
       </c>
       <c r="H20">
-        <v>16.17708</v>
+        <v>5.859576</v>
       </c>
       <c r="I20">
-        <v>0.2117900291627375</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J20">
-        <v>0.1519182783060917</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>3.8082785</v>
+        <v>0.044076</v>
       </c>
       <c r="N20">
-        <v>7.616557</v>
+        <v>0.132228</v>
       </c>
       <c r="O20">
-        <v>0.3788042963889053</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P20">
-        <v>0.2890316780750441</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q20">
-        <v>30.80341297839</v>
+        <v>0.08608889059200001</v>
       </c>
       <c r="R20">
-        <v>123.21365191356</v>
+        <v>0.774800015328</v>
       </c>
       <c r="S20">
-        <v>0.08022697297917653</v>
+        <v>0.0003783969682285459</v>
       </c>
       <c r="T20">
-        <v>0.04390919490908124</v>
+        <v>0.0004379703683959726</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.08854</v>
+        <v>1.953192</v>
       </c>
       <c r="H21">
-        <v>16.17708</v>
+        <v>5.859576</v>
       </c>
       <c r="I21">
-        <v>0.2117900291627375</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J21">
-        <v>0.1519182783060917</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.039625</v>
+        <v>2.0917535</v>
       </c>
       <c r="N21">
-        <v>0.118875</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O21">
-        <v>0.003941444997893504</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P21">
-        <v>0.004511046228784326</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q21">
-        <v>0.3205083975</v>
+        <v>4.085596202172</v>
       </c>
       <c r="R21">
-        <v>1.923050385</v>
+        <v>24.513577213032</v>
       </c>
       <c r="S21">
-        <v>0.000834758751047191</v>
+        <v>0.01795791774846741</v>
       </c>
       <c r="T21">
-        <v>0.0006853103764361025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.585578666666667</v>
-      </c>
-      <c r="H22">
-        <v>4.756736</v>
-      </c>
-      <c r="I22">
-        <v>0.04151673256893677</v>
-      </c>
-      <c r="J22">
-        <v>0.04467030783532042</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.517755</v>
-      </c>
-      <c r="N22">
-        <v>7.553265</v>
-      </c>
-      <c r="O22">
-        <v>0.2504376744648923</v>
-      </c>
-      <c r="P22">
-        <v>0.2866298851167919</v>
-      </c>
-      <c r="Q22">
-        <v>3.992098615893333</v>
-      </c>
-      <c r="R22">
-        <v>35.92888754304</v>
-      </c>
-      <c r="S22">
-        <v>0.01039735395594538</v>
-      </c>
-      <c r="T22">
-        <v>0.01280384520296962</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.585578666666667</v>
-      </c>
-      <c r="H23">
-        <v>4.756736</v>
-      </c>
-      <c r="I23">
-        <v>0.04151673256893677</v>
-      </c>
-      <c r="J23">
-        <v>0.04467030783532042</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.687724000000001</v>
-      </c>
-      <c r="N23">
-        <v>11.063172</v>
-      </c>
-      <c r="O23">
-        <v>0.3668129038085003</v>
-      </c>
-      <c r="P23">
-        <v>0.4198231783721755</v>
-      </c>
-      <c r="Q23">
-        <v>5.847176502954667</v>
-      </c>
-      <c r="R23">
-        <v>52.62458852659201</v>
-      </c>
-      <c r="S23">
-        <v>0.01522887323025263</v>
-      </c>
-      <c r="T23">
-        <v>0.01875363061428771</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.585578666666667</v>
-      </c>
-      <c r="H24">
-        <v>4.756736</v>
-      </c>
-      <c r="I24">
-        <v>0.04151673256893677</v>
-      </c>
-      <c r="J24">
-        <v>0.04467030783532042</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>3.7E-05</v>
-      </c>
-      <c r="N24">
-        <v>0.000111</v>
-      </c>
-      <c r="O24">
-        <v>3.680339808758603E-06</v>
-      </c>
-      <c r="P24">
-        <v>4.212207204164545E-06</v>
-      </c>
-      <c r="Q24">
-        <v>5.866641066666668E-05</v>
-      </c>
-      <c r="R24">
-        <v>0.000527997696</v>
-      </c>
-      <c r="S24">
-        <v>1.527956836030428E-07</v>
-      </c>
-      <c r="T24">
-        <v>1.881605924761846E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.585578666666667</v>
-      </c>
-      <c r="H25">
-        <v>4.756736</v>
-      </c>
-      <c r="I25">
-        <v>0.04151673256893677</v>
-      </c>
-      <c r="J25">
-        <v>0.04467030783532042</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.8082785</v>
-      </c>
-      <c r="N25">
-        <v>7.616557</v>
-      </c>
-      <c r="O25">
-        <v>0.3788042963889053</v>
-      </c>
-      <c r="P25">
-        <v>0.2890316780750441</v>
-      </c>
-      <c r="Q25">
-        <v>6.038325146325334</v>
-      </c>
-      <c r="R25">
-        <v>36.229950877952</v>
-      </c>
-      <c r="S25">
-        <v>0.01572671666914244</v>
-      </c>
-      <c r="T25">
-        <v>0.01291113403377145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.585578666666667</v>
-      </c>
-      <c r="H26">
-        <v>4.756736</v>
-      </c>
-      <c r="I26">
-        <v>0.04151673256893677</v>
-      </c>
-      <c r="J26">
-        <v>0.04467030783532042</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.039625</v>
-      </c>
-      <c r="N26">
-        <v>0.118875</v>
-      </c>
-      <c r="O26">
-        <v>0.003941444997893504</v>
-      </c>
-      <c r="P26">
-        <v>0.004511046228784326</v>
-      </c>
-      <c r="Q26">
-        <v>0.06282855466666667</v>
-      </c>
-      <c r="R26">
-        <v>0.565456992</v>
-      </c>
-      <c r="S26">
-        <v>0.0001636359179127181</v>
-      </c>
-      <c r="T26">
-        <v>0.0002015098236991571</v>
+        <v>0.01385676333285787</v>
       </c>
     </row>
   </sheetData>
